--- a/resumen_series_niveles_h.xlsx
+++ b/resumen_series_niveles_h.xlsx
@@ -486,19 +486,19 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="D2" t="n">
-        <v>16295</v>
+        <v>16341</v>
       </c>
       <c r="E2" t="n">
         <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1.230628988149499</v>
+        <v>1.220068415051311</v>
       </c>
       <c r="G2" t="n">
         <v>2.6</v>
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="D3" t="n">
-        <v>6550</v>
+        <v>6655</v>
       </c>
       <c r="E3" t="n">
         <v>0.1666666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>67.75370581527936</v>
+        <v>67.56047466910087</v>
       </c>
       <c r="G3" t="n">
         <v>0.7783333333333333</v>
@@ -542,19 +542,19 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="D4" t="n">
-        <v>8301</v>
+        <v>8294</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>5.458067456700091</v>
+        <v>5.473204104903079</v>
       </c>
       <c r="G4" t="n">
         <v>2.89</v>
